--- a/ejercicio_normalizacion.xlsx
+++ b/ejercicio_normalizacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucianayelicich/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucianayelicich/Desktop/Pair Programming/Mod2_magdala_luciana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DE6186B-3277-3E4F-B6F5-9758D2A94F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0D9EEC-0D42-3948-B236-648B6B4103D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E10EB878-30B5-D340-9E61-A24972A162B2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>id_pedido</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>Ejercicio de normalización</t>
+  </si>
+  <si>
+    <t>id_cliente PK</t>
+  </si>
+  <si>
+    <t>id_pedido PK</t>
+  </si>
+  <si>
+    <t>id_articulo PK</t>
+  </si>
+  <si>
+    <t>id_cliente FK</t>
+  </si>
+  <si>
+    <t>id_articulo FK</t>
   </si>
 </sst>
 </file>
@@ -455,14 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26DE0DF-B596-594D-9440-34F3AC74157C}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="13.5" bestFit="1" customWidth="1"/>
@@ -558,7 +574,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -574,16 +590,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -593,7 +609,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -601,13 +617,8 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
+      <c r="D16" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
